--- a/dash/PLANILHA TAF.xlsx
+++ b/dash/PLANILHA TAF.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1º TAF" sheetId="1" r:id="rId1"/>
@@ -12,9 +12,9 @@
     <sheet name="3º TAF" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1º TAF'!$A$1:$M$47</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2º TAF'!$A$1:$M$47</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3º TAF'!$A$1:$M$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1º TAF'!$A$1:$M$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2º TAF'!$A$1:$M$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3º TAF'!$A$1:$M$50</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="101">
   <si>
     <t>P/G</t>
   </si>
@@ -317,6 +317,18 @@
   </si>
   <si>
     <t>ALEXANDER</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>CLEANT</t>
+  </si>
+  <si>
+    <t>MATTEUS</t>
+  </si>
+  <si>
+    <t>MACDOALD</t>
   </si>
 </sst>
 </file>
@@ -888,11 +900,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD47"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AD50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1:O1048576"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41:N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="14.25"/>
@@ -974,7 +987,7 @@
       <c r="AC1" s="5"/>
       <c r="AD1" s="6"/>
     </row>
-    <row r="2" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="2" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -1032,7 +1045,7 @@
       <c r="AC2" s="8"/>
       <c r="AD2" s="10"/>
     </row>
-    <row r="3" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="3" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
@@ -1090,7 +1103,7 @@
       <c r="AC3" s="8"/>
       <c r="AD3" s="10"/>
     </row>
-    <row r="4" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="4" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
@@ -1148,7 +1161,7 @@
       <c r="AC4" s="8"/>
       <c r="AD4" s="10"/>
     </row>
-    <row r="5" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
@@ -1264,7 +1277,7 @@
       <c r="AC6" s="8"/>
       <c r="AD6" s="10"/>
     </row>
-    <row r="7" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="7" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A7" s="7" t="s">
         <v>47</v>
       </c>
@@ -1322,7 +1335,7 @@
       <c r="AC7" s="8"/>
       <c r="AD7" s="10"/>
     </row>
-    <row r="8" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="8" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A8" s="7" t="s">
         <v>47</v>
       </c>
@@ -1380,7 +1393,7 @@
       <c r="AC8" s="8"/>
       <c r="AD8" s="10"/>
     </row>
-    <row r="9" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="9" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A9" s="7" t="s">
         <v>47</v>
       </c>
@@ -1438,7 +1451,7 @@
       <c r="AC9" s="8"/>
       <c r="AD9" s="10"/>
     </row>
-    <row r="10" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="10" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A10" s="7" t="s">
         <v>50</v>
       </c>
@@ -1496,7 +1509,7 @@
       <c r="AC10" s="8"/>
       <c r="AD10" s="10"/>
     </row>
-    <row r="11" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="11" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A11" s="7" t="s">
         <v>50</v>
       </c>
@@ -1531,11 +1544,11 @@
       <c r="L11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="8" t="s">
         <v>23</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
@@ -1589,7 +1602,7 @@
       <c r="L12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="8" t="s">
         <v>23</v>
       </c>
       <c r="N12" s="8" t="s">
@@ -1670,7 +1683,7 @@
       <c r="AC13" s="8"/>
       <c r="AD13" s="10"/>
     </row>
-    <row r="14" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="14" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A14" s="7" t="s">
         <v>41</v>
       </c>
@@ -1728,7 +1741,7 @@
       <c r="AC14" s="8"/>
       <c r="AD14" s="10"/>
     </row>
-    <row r="15" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="15" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A15" s="7" t="s">
         <v>41</v>
       </c>
@@ -1786,7 +1799,7 @@
       <c r="AC15" s="8"/>
       <c r="AD15" s="10"/>
     </row>
-    <row r="16" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="16" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A16" s="7" t="s">
         <v>41</v>
       </c>
@@ -1844,7 +1857,7 @@
       <c r="AC16" s="8"/>
       <c r="AD16" s="10"/>
     </row>
-    <row r="17" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="17" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A17" s="7" t="s">
         <v>46</v>
       </c>
@@ -1902,7 +1915,7 @@
       <c r="AC17" s="8"/>
       <c r="AD17" s="10"/>
     </row>
-    <row r="18" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="18" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -1956,7 +1969,7 @@
       <c r="AC18" s="8"/>
       <c r="AD18" s="10"/>
     </row>
-    <row r="19" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="19" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
@@ -2014,7 +2027,7 @@
       <c r="AC19" s="8"/>
       <c r="AD19" s="10"/>
     </row>
-    <row r="20" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="20" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A20" s="7" t="s">
         <v>52</v>
       </c>
@@ -2070,48 +2083,46 @@
       <c r="AC20" s="8"/>
       <c r="AD20" s="10"/>
     </row>
-    <row r="21" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="21" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A21" s="7" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C21" s="9">
+        <v>50</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="9">
+        <v>2500</v>
+      </c>
+      <c r="G21" s="8">
+        <v>10</v>
+      </c>
+      <c r="H21" s="8">
+        <v>60</v>
+      </c>
+      <c r="I21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="J21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>37</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K21" s="8"/>
       <c r="L21" s="8" t="s">
         <v>28</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
@@ -2130,15 +2141,15 @@
       <c r="AC21" s="8"/>
       <c r="AD21" s="10"/>
     </row>
-    <row r="22" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="22" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A22" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="9">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>15</v>
@@ -2146,30 +2157,32 @@
       <c r="E22" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="9">
-        <v>3300</v>
+      <c r="F22" s="8">
+        <v>3000</v>
       </c>
       <c r="G22" s="8">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H22" s="8">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="I22" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K22" s="8"/>
+      <c r="K22" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="L22" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
@@ -2188,40 +2201,40 @@
       <c r="AC22" s="8"/>
       <c r="AD22" s="10"/>
     </row>
-    <row r="23" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="23" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A23" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" s="9">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F23" s="9">
-        <v>2650</v>
+        <v>3300</v>
       </c>
       <c r="G23" s="8">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H23" s="8">
-        <v>70</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>30</v>
+        <v>64</v>
+      </c>
+      <c r="I23" s="8">
+        <v>10</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>17</v>
       </c>
       <c r="K23" s="8"/>
       <c r="L23" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M23" s="8" t="s">
         <v>19</v>
@@ -2246,27 +2259,27 @@
       <c r="AC23" s="8"/>
       <c r="AD23" s="10"/>
     </row>
-    <row r="24" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="24" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A24" s="7" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" s="9">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F24" s="9">
-        <v>2600</v>
+        <v>2650</v>
       </c>
       <c r="G24" s="8">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H24" s="8">
         <v>70</v>
@@ -2304,15 +2317,15 @@
       <c r="AC24" s="8"/>
       <c r="AD24" s="10"/>
     </row>
-    <row r="25" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="25" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A25" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>32</v>
@@ -2321,19 +2334,19 @@
         <v>29</v>
       </c>
       <c r="F25" s="9">
-        <v>2050</v>
+        <v>2600</v>
       </c>
       <c r="G25" s="8">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H25" s="8">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>30</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="K25" s="8"/>
       <c r="L25" s="8" t="s">
@@ -2343,7 +2356,7 @@
         <v>19</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
@@ -2362,36 +2375,36 @@
       <c r="AC25" s="8"/>
       <c r="AD25" s="10"/>
     </row>
-    <row r="26" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="26" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A26" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="C26" s="9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F26" s="9">
-        <v>3000</v>
+        <v>2050</v>
       </c>
       <c r="G26" s="8">
+        <v>11</v>
+      </c>
+      <c r="H26" s="8">
         <v>40</v>
-      </c>
-      <c r="H26" s="8">
-        <v>76</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>30</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="K26" s="8"/>
       <c r="L26" s="8" t="s">
@@ -2420,40 +2433,40 @@
       <c r="AC26" s="8"/>
       <c r="AD26" s="10"/>
     </row>
-    <row r="27" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="27" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="C27" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F27" s="9">
-        <v>2850</v>
+        <v>3000</v>
       </c>
       <c r="G27" s="8">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H27" s="8">
-        <v>60</v>
-      </c>
-      <c r="I27" s="8">
-        <v>8</v>
+        <v>76</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K27" s="8"/>
       <c r="L27" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>19</v>
@@ -2478,15 +2491,15 @@
       <c r="AC27" s="8"/>
       <c r="AD27" s="10"/>
     </row>
-    <row r="28" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="28" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A28" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C28" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>15</v>
@@ -2498,10 +2511,10 @@
         <v>2850</v>
       </c>
       <c r="G28" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H28" s="8">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I28" s="8">
         <v>8</v>
@@ -2536,15 +2549,15 @@
       <c r="AC28" s="8"/>
       <c r="AD28" s="10"/>
     </row>
-    <row r="29" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="29" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A29" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>15</v>
@@ -2556,10 +2569,10 @@
         <v>2850</v>
       </c>
       <c r="G29" s="8">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H29" s="8">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I29" s="8">
         <v>8</v>
@@ -2569,7 +2582,7 @@
       </c>
       <c r="K29" s="8"/>
       <c r="L29" s="8" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M29" s="8" t="s">
         <v>19</v>
@@ -2594,30 +2607,30 @@
       <c r="AC29" s="8"/>
       <c r="AD29" s="10"/>
     </row>
-    <row r="30" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="30" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A30" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="9">
+        <v>23</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="9">
+        <v>2850</v>
+      </c>
+      <c r="G30" s="8">
+        <v>40</v>
+      </c>
+      <c r="H30" s="8">
         <v>85</v>
-      </c>
-      <c r="C30" s="9">
-        <v>35</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="9">
-        <v>2800</v>
-      </c>
-      <c r="G30" s="8">
-        <v>25</v>
-      </c>
-      <c r="H30" s="8">
-        <v>70</v>
       </c>
       <c r="I30" s="8">
         <v>8</v>
@@ -2632,7 +2645,9 @@
       <c r="M30" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="N30" s="8"/>
+      <c r="N30" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
@@ -2650,15 +2665,15 @@
       <c r="AC30" s="8"/>
       <c r="AD30" s="10"/>
     </row>
-    <row r="31" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="31" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A31" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C31" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>15</v>
@@ -2670,27 +2685,25 @@
         <v>2800</v>
       </c>
       <c r="G31" s="8">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H31" s="8">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I31" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>16</v>
       </c>
       <c r="K31" s="8"/>
       <c r="L31" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="N31" s="8" t="s">
-        <v>56</v>
-      </c>
+      <c r="N31" s="8"/>
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
@@ -2708,15 +2721,15 @@
       <c r="AC31" s="8"/>
       <c r="AD31" s="10"/>
     </row>
-    <row r="32" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="32" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A32" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C32" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>15</v>
@@ -2725,29 +2738,29 @@
         <v>16</v>
       </c>
       <c r="F32" s="9">
-        <v>2650</v>
+        <v>2800</v>
       </c>
       <c r="G32" s="8">
         <v>40</v>
       </c>
       <c r="H32" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I32" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K32" s="8"/>
       <c r="L32" s="8" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
@@ -2766,15 +2779,15 @@
       <c r="AC32" s="8"/>
       <c r="AD32" s="10"/>
     </row>
-    <row r="33" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="33" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A33" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="C33" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>15</v>
@@ -2789,13 +2802,13 @@
         <v>40</v>
       </c>
       <c r="H33" s="8">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I33" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K33" s="8"/>
       <c r="L33" s="8" t="s">
@@ -2824,15 +2837,15 @@
       <c r="AC33" s="8"/>
       <c r="AD33" s="10"/>
     </row>
-    <row r="34" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="34" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A34" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="C34" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>15</v>
@@ -2841,26 +2854,26 @@
         <v>16</v>
       </c>
       <c r="F34" s="9">
-        <v>2600</v>
+        <v>2650</v>
       </c>
       <c r="G34" s="8">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="H34" s="8">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="I34" s="8">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="K34" s="8"/>
       <c r="L34" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N34" s="8" t="s">
         <v>55</v>
@@ -2882,12 +2895,12 @@
       <c r="AC34" s="8"/>
       <c r="AD34" s="10"/>
     </row>
-    <row r="35" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="35" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A35" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C35" s="9">
         <v>25</v>
@@ -2899,19 +2912,19 @@
         <v>16</v>
       </c>
       <c r="F35" s="9">
-        <v>2550</v>
+        <v>2600</v>
       </c>
       <c r="G35" s="8">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H35" s="8">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="I35" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="K35" s="8"/>
       <c r="L35" s="8" t="s">
@@ -2940,15 +2953,15 @@
       <c r="AC35" s="8"/>
       <c r="AD35" s="10"/>
     </row>
-    <row r="36" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="36" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A36" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="C36" s="9">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>15</v>
@@ -2957,23 +2970,23 @@
         <v>16</v>
       </c>
       <c r="F36" s="9">
-        <v>2450</v>
+        <v>2550</v>
       </c>
       <c r="G36" s="8">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H36" s="8">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="I36" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>36</v>
       </c>
       <c r="K36" s="8"/>
       <c r="L36" s="8" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>19</v>
@@ -2998,15 +3011,15 @@
       <c r="AC36" s="8"/>
       <c r="AD36" s="10"/>
     </row>
-    <row r="37" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="37" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A37" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="C37" s="9">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>15</v>
@@ -3015,16 +3028,16 @@
         <v>16</v>
       </c>
       <c r="F37" s="9">
-        <v>2050</v>
+        <v>2450</v>
       </c>
       <c r="G37" s="8">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H37" s="8">
         <v>80</v>
       </c>
       <c r="I37" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>36</v>
@@ -3033,10 +3046,12 @@
       <c r="L37" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M37" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N37" s="8"/>
+      <c r="M37" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
@@ -3054,15 +3069,15 @@
       <c r="AC37" s="8"/>
       <c r="AD37" s="10"/>
     </row>
-    <row r="38" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="38" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A38" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>15</v>
@@ -3070,21 +3085,29 @@
       <c r="E38" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
+      <c r="F38" s="9">
+        <v>2050</v>
+      </c>
+      <c r="G38" s="8">
+        <v>20</v>
+      </c>
+      <c r="H38" s="8">
+        <v>80</v>
+      </c>
+      <c r="I38" s="8">
+        <v>0</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="K38" s="8"/>
       <c r="L38" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M38" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="N38" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="M38" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N38" s="8"/>
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
@@ -3102,15 +3125,15 @@
       <c r="AC38" s="8"/>
       <c r="AD38" s="10"/>
     </row>
-    <row r="39" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="39" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A39" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>15</v>
@@ -3118,27 +3141,17 @@
       <c r="E39" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="9">
-        <v>2200</v>
-      </c>
-      <c r="G39" s="8">
-        <v>19</v>
-      </c>
-      <c r="H39" s="8">
-        <v>67</v>
-      </c>
-      <c r="I39" s="8">
-        <v>5</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="N39" s="8" t="s">
         <v>55</v>
@@ -3160,12 +3173,12 @@
       <c r="AC39" s="8"/>
       <c r="AD39" s="10"/>
     </row>
-    <row r="40" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="40" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A40" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40" s="9">
         <v>18</v>
@@ -3183,7 +3196,7 @@
         <v>19</v>
       </c>
       <c r="H40" s="8">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="I40" s="8">
         <v>5</v>
@@ -3193,7 +3206,7 @@
       </c>
       <c r="K40" s="8"/>
       <c r="L40" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M40" s="8" t="s">
         <v>19</v>
@@ -3220,13 +3233,13 @@
     </row>
     <row r="41" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A41" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C41" s="9">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>15</v>
@@ -3235,19 +3248,19 @@
         <v>16</v>
       </c>
       <c r="F41" s="9">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="G41" s="8">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H41" s="8">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="I41" s="8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="K41" s="8"/>
       <c r="L41" s="8" t="s">
@@ -3257,7 +3270,7 @@
         <v>19</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="O41" s="8"/>
       <c r="P41" s="8"/>
@@ -3278,34 +3291,34 @@
     </row>
     <row r="42" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A42" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C42" s="9">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F42" s="9">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="G42" s="8">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H42" s="8">
-        <v>85</v>
-      </c>
-      <c r="I42" s="8">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="K42" s="8"/>
       <c r="L42" s="8" t="s">
@@ -3315,7 +3328,7 @@
         <v>19</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="O42" s="8"/>
       <c r="P42" s="8"/>
@@ -3339,7 +3352,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C43" s="9">
         <v>18</v>
@@ -3351,23 +3364,23 @@
         <v>16</v>
       </c>
       <c r="F43" s="9">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="G43" s="8">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H43" s="8">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="I43" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>36</v>
       </c>
       <c r="K43" s="8"/>
       <c r="L43" s="8" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M43" s="8" t="s">
         <v>19</v>
@@ -3397,10 +3410,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C44" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>15</v>
@@ -3408,13 +3421,17 @@
       <c r="E44" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="8"/>
+      <c r="F44" s="9">
+        <v>2200</v>
+      </c>
+      <c r="G44" s="8">
+        <v>32</v>
+      </c>
       <c r="H44" s="8">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="I44" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J44" s="8" t="s">
         <v>36</v>
@@ -3451,10 +3468,10 @@
         <v>42</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C45" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>15</v>
@@ -3463,23 +3480,23 @@
         <v>16</v>
       </c>
       <c r="F45" s="9">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="G45" s="8">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H45" s="8">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I45" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J45" s="8" t="s">
         <v>36</v>
       </c>
       <c r="K45" s="8"/>
       <c r="L45" s="8" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M45" s="8" t="s">
         <v>19</v>
@@ -3504,12 +3521,12 @@
       <c r="AC45" s="8"/>
       <c r="AD45" s="10"/>
     </row>
-    <row r="46" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="46" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A46" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="C46" s="9">
         <v>18</v>
@@ -3524,20 +3541,20 @@
         <v>2000</v>
       </c>
       <c r="G46" s="8">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H46" s="8">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="I46" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J46" s="8" t="s">
         <v>36</v>
       </c>
       <c r="K46" s="8"/>
       <c r="L46" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M46" s="8" t="s">
         <v>19</v>
@@ -3567,10 +3584,10 @@
         <v>42</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C47" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>15</v>
@@ -3578,17 +3595,13 @@
       <c r="E47" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="9">
-        <v>2000</v>
-      </c>
-      <c r="G47" s="8">
-        <v>25</v>
-      </c>
+      <c r="F47" s="9"/>
+      <c r="G47" s="8"/>
       <c r="H47" s="8">
         <v>80</v>
       </c>
       <c r="I47" s="8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>36</v>
@@ -3620,8 +3633,187 @@
       <c r="AC47" s="8"/>
       <c r="AD47" s="10"/>
     </row>
+    <row r="48" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+      <c r="A48" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="9">
+        <v>18</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="9">
+        <v>2000</v>
+      </c>
+      <c r="G48" s="8">
+        <v>18</v>
+      </c>
+      <c r="H48" s="8">
+        <v>75</v>
+      </c>
+      <c r="I48" s="8">
+        <v>4</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="8"/>
+      <c r="AD48" s="10"/>
+    </row>
+    <row r="49" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A49" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="9">
+        <v>18</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="9">
+        <v>2000</v>
+      </c>
+      <c r="G49" s="8">
+        <v>13</v>
+      </c>
+      <c r="H49" s="8">
+        <v>86</v>
+      </c>
+      <c r="I49" s="8">
+        <v>4</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="8"/>
+      <c r="AD49" s="10"/>
+    </row>
+    <row r="50" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A50" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="9">
+        <v>17</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="9">
+        <v>2000</v>
+      </c>
+      <c r="G50" s="8">
+        <v>25</v>
+      </c>
+      <c r="H50" s="8">
+        <v>80</v>
+      </c>
+      <c r="I50" s="8">
+        <v>8</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N50" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="8"/>
+      <c r="AD50" s="10"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M47">
+  <autoFilter ref="A1:M50">
+    <filterColumn colId="11">
+      <filters>
+        <filter val="2ª Cia Fuz L Mth"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:M1000">
       <sortCondition ref="A2:A1000" customList="CEL,TEN CEL,MAJ,CAP,1º TEN,2º TEN,ASP,S TEN,1º SGT,2º SGT,2º SGT QE,3º SGT,CB,SD,SD EV"/>
     </sortState>
@@ -3638,11 +3830,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AD47"/>
+  <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1:O1048576"/>
+      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="14.25"/>
@@ -3724,7 +3916,7 @@
       <c r="AC1" s="5"/>
       <c r="AD1" s="6"/>
     </row>
-    <row r="2" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="2" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -3782,7 +3974,7 @@
       <c r="AC2" s="8"/>
       <c r="AD2" s="10"/>
     </row>
-    <row r="3" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="3" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
@@ -3840,7 +4032,7 @@
       <c r="AC3" s="8"/>
       <c r="AD3" s="10"/>
     </row>
-    <row r="4" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="4" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
@@ -3898,7 +4090,7 @@
       <c r="AC4" s="8"/>
       <c r="AD4" s="10"/>
     </row>
-    <row r="5" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
@@ -4014,7 +4206,7 @@
       <c r="AC6" s="8"/>
       <c r="AD6" s="10"/>
     </row>
-    <row r="7" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="7" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A7" s="7" t="s">
         <v>47</v>
       </c>
@@ -4130,7 +4322,7 @@
       <c r="AC8" s="8"/>
       <c r="AD8" s="10"/>
     </row>
-    <row r="9" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="9" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A9" s="7" t="s">
         <v>47</v>
       </c>
@@ -4420,7 +4612,7 @@
       <c r="AC13" s="8"/>
       <c r="AD13" s="10"/>
     </row>
-    <row r="14" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="14" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A14" s="7" t="s">
         <v>41</v>
       </c>
@@ -4478,7 +4670,7 @@
       <c r="AC14" s="8"/>
       <c r="AD14" s="10"/>
     </row>
-    <row r="15" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="15" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A15" s="7" t="s">
         <v>41</v>
       </c>
@@ -4536,7 +4728,7 @@
       <c r="AC15" s="8"/>
       <c r="AD15" s="10"/>
     </row>
-    <row r="16" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="16" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A16" s="7" t="s">
         <v>41</v>
       </c>
@@ -4594,7 +4786,7 @@
       <c r="AC16" s="8"/>
       <c r="AD16" s="10"/>
     </row>
-    <row r="17" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="17" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A17" s="7" t="s">
         <v>46</v>
       </c>
@@ -4652,7 +4844,7 @@
       <c r="AC17" s="8"/>
       <c r="AD17" s="10"/>
     </row>
-    <row r="18" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="18" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -4706,7 +4898,7 @@
       <c r="AC18" s="8"/>
       <c r="AD18" s="10"/>
     </row>
-    <row r="19" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="19" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
@@ -4764,7 +4956,7 @@
       <c r="AC19" s="8"/>
       <c r="AD19" s="10"/>
     </row>
-    <row r="20" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="20" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A20" s="7" t="s">
         <v>52</v>
       </c>
@@ -4820,48 +5012,46 @@
       <c r="AC20" s="8"/>
       <c r="AD20" s="10"/>
     </row>
-    <row r="21" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="21" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A21" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C21" s="9">
-        <v>30</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>35</v>
+      <c r="F21" s="9">
+        <v>2800</v>
+      </c>
+      <c r="G21" s="8">
+        <v>22</v>
+      </c>
+      <c r="H21" s="8">
+        <v>80</v>
+      </c>
+      <c r="I21" s="8">
+        <v>9</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>37</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K21" s="8"/>
       <c r="L21" s="8" t="s">
         <v>28</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
@@ -4880,43 +5070,43 @@
       <c r="AC21" s="8"/>
       <c r="AD21" s="10"/>
     </row>
-    <row r="22" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="22" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A22" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C22" s="9">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F22" s="9">
-        <v>3300</v>
+        <v>2600</v>
       </c>
       <c r="G22" s="8">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H22" s="8">
-        <v>64</v>
-      </c>
-      <c r="I22" s="8">
-        <v>10</v>
+        <v>70</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>17</v>
       </c>
       <c r="K22" s="8"/>
       <c r="L22" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>48</v>
@@ -4938,15 +5128,15 @@
       <c r="AC22" s="8"/>
       <c r="AD22" s="10"/>
     </row>
-    <row r="23" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="23" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A23" s="7" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C23" s="9">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>15</v>
@@ -4955,13 +5145,13 @@
         <v>29</v>
       </c>
       <c r="F23" s="9">
-        <v>2650</v>
+        <v>3000</v>
       </c>
       <c r="G23" s="8">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H23" s="8">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>30</v>
@@ -4971,10 +5161,10 @@
       </c>
       <c r="K23" s="8"/>
       <c r="L23" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N23" s="8" t="s">
         <v>48</v>
@@ -4998,44 +5188,46 @@
     </row>
     <row r="24" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A24" s="7" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="9">
+        <v>30</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="8">
+        <v>2000</v>
+      </c>
+      <c r="G24" s="8">
+        <v>26</v>
+      </c>
+      <c r="H24" s="8">
         <v>80</v>
       </c>
-      <c r="C24" s="9">
+      <c r="I24" s="8">
+        <v>12</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="9">
-        <v>2600</v>
-      </c>
-      <c r="G24" s="8">
-        <v>20</v>
-      </c>
-      <c r="H24" s="8">
-        <v>70</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="M24" s="8" t="s">
         <v>19</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
@@ -5056,44 +5248,44 @@
     </row>
     <row r="25" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A25" s="7" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C25" s="9">
+        <v>39</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="9">
+        <v>3300</v>
+      </c>
+      <c r="G25" s="8">
         <v>32</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="9">
-        <v>2050</v>
-      </c>
-      <c r="G25" s="8">
-        <v>11</v>
-      </c>
       <c r="H25" s="8">
-        <v>40</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>30</v>
+        <v>64</v>
+      </c>
+      <c r="I25" s="8">
+        <v>10</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="K25" s="8"/>
       <c r="L25" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>19</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
@@ -5112,15 +5304,15 @@
       <c r="AC25" s="8"/>
       <c r="AD25" s="10"/>
     </row>
-    <row r="26" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="26" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A26" s="7" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C26" s="9">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>15</v>
@@ -5129,13 +5321,13 @@
         <v>29</v>
       </c>
       <c r="F26" s="9">
-        <v>3000</v>
+        <v>2650</v>
       </c>
       <c r="G26" s="8">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="H26" s="8">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>30</v>
@@ -5151,7 +5343,7 @@
         <v>19</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
@@ -5170,46 +5362,46 @@
       <c r="AC26" s="8"/>
       <c r="AD26" s="10"/>
     </row>
-    <row r="27" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="27" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C27" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F27" s="9">
-        <v>2850</v>
+        <v>2600</v>
       </c>
       <c r="G27" s="8">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H27" s="8">
-        <v>60</v>
-      </c>
-      <c r="I27" s="8">
-        <v>8</v>
+        <v>70</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K27" s="8"/>
       <c r="L27" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>19</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
@@ -5228,40 +5420,40 @@
       <c r="AC27" s="8"/>
       <c r="AD27" s="10"/>
     </row>
-    <row r="28" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="28" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A28" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C28" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F28" s="9">
-        <v>2850</v>
+        <v>2050</v>
       </c>
       <c r="G28" s="8">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="H28" s="8">
-        <v>70</v>
-      </c>
-      <c r="I28" s="8">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="K28" s="8"/>
       <c r="L28" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M28" s="8" t="s">
         <v>19</v>
@@ -5286,40 +5478,40 @@
       <c r="AC28" s="8"/>
       <c r="AD28" s="10"/>
     </row>
-    <row r="29" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="29" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A29" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="C29" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F29" s="9">
-        <v>2850</v>
+        <v>3000</v>
       </c>
       <c r="G29" s="8">
         <v>40</v>
       </c>
       <c r="H29" s="8">
-        <v>85</v>
-      </c>
-      <c r="I29" s="8">
-        <v>8</v>
+        <v>76</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K29" s="8"/>
       <c r="L29" s="8" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M29" s="8" t="s">
         <v>19</v>
@@ -5344,15 +5536,15 @@
       <c r="AC29" s="8"/>
       <c r="AD29" s="10"/>
     </row>
-    <row r="30" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="30" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A30" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C30" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>15</v>
@@ -5361,13 +5553,13 @@
         <v>16</v>
       </c>
       <c r="F30" s="9">
-        <v>2800</v>
+        <v>2850</v>
       </c>
       <c r="G30" s="8">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H30" s="8">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I30" s="8">
         <v>8</v>
@@ -5377,12 +5569,14 @@
       </c>
       <c r="K30" s="8"/>
       <c r="L30" s="8" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M30" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="N30" s="8"/>
+      <c r="N30" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
@@ -5400,15 +5594,15 @@
       <c r="AC30" s="8"/>
       <c r="AD30" s="10"/>
     </row>
-    <row r="31" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="31" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A31" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C31" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>15</v>
@@ -5417,16 +5611,16 @@
         <v>16</v>
       </c>
       <c r="F31" s="9">
-        <v>2800</v>
+        <v>2850</v>
       </c>
       <c r="G31" s="8">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H31" s="8">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I31" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>16</v>
@@ -5439,7 +5633,7 @@
         <v>19</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
@@ -5458,15 +5652,15 @@
       <c r="AC31" s="8"/>
       <c r="AD31" s="10"/>
     </row>
-    <row r="32" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="32" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A32" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C32" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>15</v>
@@ -5475,29 +5669,29 @@
         <v>16</v>
       </c>
       <c r="F32" s="9">
-        <v>2650</v>
+        <v>2850</v>
       </c>
       <c r="G32" s="8">
         <v>40</v>
       </c>
       <c r="H32" s="8">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I32" s="8">
         <v>8</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K32" s="8"/>
       <c r="L32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
@@ -5516,15 +5710,15 @@
       <c r="AC32" s="8"/>
       <c r="AD32" s="10"/>
     </row>
-    <row r="33" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="33" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A33" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C33" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>15</v>
@@ -5533,16 +5727,16 @@
         <v>16</v>
       </c>
       <c r="F33" s="9">
-        <v>2650</v>
+        <v>2800</v>
       </c>
       <c r="G33" s="8">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H33" s="8">
         <v>70</v>
       </c>
       <c r="I33" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>16</v>
@@ -5552,11 +5746,9 @@
         <v>18</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>55</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="N33" s="8"/>
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
@@ -5574,36 +5766,36 @@
       <c r="AC33" s="8"/>
       <c r="AD33" s="10"/>
     </row>
-    <row r="34" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="34" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A34" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="9">
+        <v>21</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="9">
+        <v>2800</v>
+      </c>
+      <c r="G34" s="8">
         <v>40</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="9">
-        <v>25</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="9">
-        <v>2600</v>
-      </c>
-      <c r="G34" s="8">
-        <v>26</v>
-      </c>
       <c r="H34" s="8">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="I34" s="8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="K34" s="8"/>
       <c r="L34" s="8" t="s">
@@ -5613,7 +5805,7 @@
         <v>19</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
@@ -5632,15 +5824,15 @@
       <c r="AC34" s="8"/>
       <c r="AD34" s="10"/>
     </row>
-    <row r="35" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="35" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A35" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C35" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>15</v>
@@ -5649,26 +5841,26 @@
         <v>16</v>
       </c>
       <c r="F35" s="9">
-        <v>2550</v>
+        <v>2650</v>
       </c>
       <c r="G35" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H35" s="8">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I35" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="K35" s="8"/>
       <c r="L35" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N35" s="8" t="s">
         <v>55</v>
@@ -5690,15 +5882,15 @@
       <c r="AC35" s="8"/>
       <c r="AD35" s="10"/>
     </row>
-    <row r="36" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="36" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A36" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C36" s="9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>15</v>
@@ -5707,26 +5899,26 @@
         <v>16</v>
       </c>
       <c r="F36" s="9">
-        <v>2450</v>
+        <v>2650</v>
       </c>
       <c r="G36" s="8">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H36" s="8">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I36" s="8">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="K36" s="8"/>
       <c r="L36" s="8" t="s">
         <v>18</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N36" s="8" t="s">
         <v>55</v>
@@ -5748,15 +5940,15 @@
       <c r="AC36" s="8"/>
       <c r="AD36" s="10"/>
     </row>
-    <row r="37" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="37" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A37" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C37" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>15</v>
@@ -5765,28 +5957,30 @@
         <v>16</v>
       </c>
       <c r="F37" s="9">
-        <v>2050</v>
+        <v>2600</v>
       </c>
       <c r="G37" s="8">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H37" s="8">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="I37" s="8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="K37" s="8"/>
       <c r="L37" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M37" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N37" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
@@ -5804,33 +5998,43 @@
       <c r="AC37" s="8"/>
       <c r="AD37" s="10"/>
     </row>
-    <row r="38" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="38" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A38" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C38" s="9">
+        <v>25</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="9">
+        <v>2550</v>
+      </c>
+      <c r="G38" s="8">
         <v>30</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
+      <c r="H38" s="8">
+        <v>64</v>
+      </c>
+      <c r="I38" s="8">
+        <v>7</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="K38" s="8"/>
       <c r="L38" s="8" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="N38" s="8" t="s">
         <v>55</v>
@@ -5852,15 +6056,15 @@
       <c r="AC38" s="8"/>
       <c r="AD38" s="10"/>
     </row>
-    <row r="39" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="39" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A39" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="C39" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>15</v>
@@ -5869,13 +6073,13 @@
         <v>16</v>
       </c>
       <c r="F39" s="9">
-        <v>2200</v>
+        <v>2450</v>
       </c>
       <c r="G39" s="8">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H39" s="8">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="I39" s="8">
         <v>5</v>
@@ -5885,7 +6089,7 @@
       </c>
       <c r="K39" s="8"/>
       <c r="L39" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M39" s="8" t="s">
         <v>19</v>
@@ -5910,15 +6114,15 @@
       <c r="AC39" s="8"/>
       <c r="AD39" s="10"/>
     </row>
-    <row r="40" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
+    <row r="40" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A40" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C40" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>15</v>
@@ -5927,30 +6131,28 @@
         <v>16</v>
       </c>
       <c r="F40" s="9">
-        <v>2200</v>
+        <v>2050</v>
       </c>
       <c r="G40" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H40" s="8">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="I40" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>36</v>
       </c>
       <c r="K40" s="8"/>
       <c r="L40" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M40" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N40" s="8" t="s">
-        <v>55</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N40" s="8"/>
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
@@ -5968,15 +6170,15 @@
       <c r="AC40" s="8"/>
       <c r="AD40" s="10"/>
     </row>
-    <row r="41" spans="1:30" ht="15.75" thickBot="1">
+    <row r="41" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A41" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C41" s="9">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>15</v>
@@ -5984,27 +6186,17 @@
       <c r="E41" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="9">
-        <v>2200</v>
-      </c>
-      <c r="G41" s="8">
-        <v>32</v>
-      </c>
-      <c r="H41" s="8">
-        <v>64</v>
-      </c>
-      <c r="I41" s="8">
-        <v>7</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="N41" s="8" t="s">
         <v>55</v>
@@ -6026,15 +6218,15 @@
       <c r="AC41" s="8"/>
       <c r="AD41" s="10"/>
     </row>
-    <row r="42" spans="1:30" ht="15.75" thickBot="1">
+    <row r="42" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A42" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C42" s="9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>15</v>
@@ -6046,20 +6238,20 @@
         <v>2200</v>
       </c>
       <c r="G42" s="8">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H42" s="8">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="I42" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="K42" s="8"/>
       <c r="L42" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M42" s="8" t="s">
         <v>19</v>
@@ -6084,15 +6276,15 @@
       <c r="AC42" s="8"/>
       <c r="AD42" s="10"/>
     </row>
-    <row r="43" spans="1:30" ht="15.75" thickBot="1">
+    <row r="43" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A43" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C43" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>15</v>
@@ -6101,29 +6293,29 @@
         <v>16</v>
       </c>
       <c r="F43" s="9">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G43" s="8">
+        <v>24</v>
+      </c>
+      <c r="H43" s="8">
+        <v>80</v>
+      </c>
+      <c r="I43" s="8">
         <v>10</v>
       </c>
-      <c r="H43" s="8">
-        <v>31</v>
-      </c>
-      <c r="I43" s="8">
-        <v>3</v>
-      </c>
       <c r="J43" s="8" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="K43" s="8"/>
       <c r="L43" s="8" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M43" s="8" t="s">
         <v>19</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="O43" s="8"/>
       <c r="P43" s="8"/>
@@ -6142,32 +6334,36 @@
       <c r="AC43" s="8"/>
       <c r="AD43" s="10"/>
     </row>
-    <row r="44" spans="1:30" ht="15.75" thickBot="1">
+    <row r="44" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A44" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="C44" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="F44" s="9">
+        <v>3000</v>
+      </c>
+      <c r="G44" s="8">
+        <v>20</v>
+      </c>
       <c r="H44" s="8">
-        <v>80</v>
-      </c>
-      <c r="I44" s="8">
-        <v>5</v>
+        <v>60</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="K44" s="8"/>
       <c r="L44" s="8" t="s">
@@ -6177,7 +6373,7 @@
         <v>19</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="O44" s="8"/>
       <c r="P44" s="8"/>
@@ -6196,12 +6392,12 @@
       <c r="AC44" s="8"/>
       <c r="AD44" s="10"/>
     </row>
-    <row r="45" spans="1:30" ht="15.75" thickBot="1">
+    <row r="45" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="C45" s="9">
         <v>18</v>
@@ -6213,23 +6409,23 @@
         <v>16</v>
       </c>
       <c r="F45" s="9">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="G45" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H45" s="8">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="I45" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J45" s="8" t="s">
         <v>36</v>
       </c>
       <c r="K45" s="8"/>
       <c r="L45" s="8" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M45" s="8" t="s">
         <v>19</v>
@@ -6259,10 +6455,10 @@
         <v>42</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="C46" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>15</v>
@@ -6271,16 +6467,16 @@
         <v>16</v>
       </c>
       <c r="F46" s="9">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="G46" s="8">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="H46" s="8">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="I46" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J46" s="8" t="s">
         <v>36</v>
@@ -6317,10 +6513,10 @@
         <v>42</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="C47" s="9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>15</v>
@@ -6329,19 +6525,19 @@
         <v>16</v>
       </c>
       <c r="F47" s="9">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="G47" s="8">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H47" s="8">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I47" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="K47" s="8"/>
       <c r="L47" s="8" t="s">
@@ -6370,11 +6566,302 @@
       <c r="AC47" s="8"/>
       <c r="AD47" s="10"/>
     </row>
+    <row r="48" spans="1:30" ht="15.75" hidden="1" thickBot="1">
+      <c r="A48" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="9">
+        <v>18</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="9">
+        <v>2000</v>
+      </c>
+      <c r="G48" s="8">
+        <v>10</v>
+      </c>
+      <c r="H48" s="8">
+        <v>31</v>
+      </c>
+      <c r="I48" s="8">
+        <v>3</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="8"/>
+      <c r="AD48" s="10"/>
+    </row>
+    <row r="49" spans="1:30" ht="15.75" thickBot="1">
+      <c r="A49" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="9">
+        <v>18</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="9"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8">
+        <v>80</v>
+      </c>
+      <c r="I49" s="8">
+        <v>5</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="8"/>
+      <c r="AD49" s="10"/>
+    </row>
+    <row r="50" spans="1:30" ht="15.75" hidden="1" thickBot="1">
+      <c r="A50" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="9">
+        <v>18</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="9">
+        <v>2000</v>
+      </c>
+      <c r="G50" s="8">
+        <v>18</v>
+      </c>
+      <c r="H50" s="8">
+        <v>75</v>
+      </c>
+      <c r="I50" s="8">
+        <v>4</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N50" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="8"/>
+      <c r="AD50" s="10"/>
+    </row>
+    <row r="51" spans="1:30" ht="15.75" thickBot="1">
+      <c r="A51" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="9">
+        <v>18</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="9">
+        <v>2000</v>
+      </c>
+      <c r="G51" s="8">
+        <v>13</v>
+      </c>
+      <c r="H51" s="8">
+        <v>86</v>
+      </c>
+      <c r="I51" s="8">
+        <v>4</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="8"/>
+      <c r="AC51" s="8"/>
+      <c r="AD51" s="10"/>
+    </row>
+    <row r="52" spans="1:30" ht="15.75" thickBot="1">
+      <c r="A52" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="9">
+        <v>17</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="9">
+        <v>2000</v>
+      </c>
+      <c r="G52" s="8">
+        <v>25</v>
+      </c>
+      <c r="H52" s="8">
+        <v>80</v>
+      </c>
+      <c r="I52" s="8">
+        <v>8</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M52" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="8"/>
+      <c r="AD52" s="10"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M47">
+  <autoFilter ref="A1:M52">
     <filterColumn colId="3">
       <filters>
         <filter val="M"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="11">
+      <filters>
+        <filter val="2ª Cia Fuz L Mth"/>
       </filters>
     </filterColumn>
     <sortState ref="A2:M1000">
@@ -6393,11 +6880,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AD47"/>
+  <dimension ref="A1:AD50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1:O1048576"/>
+      <selection pane="bottomLeft" activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="14.25"/>
@@ -6479,7 +6966,7 @@
       <c r="AC1" s="5"/>
       <c r="AD1" s="6"/>
     </row>
-    <row r="2" spans="1:30" ht="15.75" thickBot="1">
+    <row r="2" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -6537,7 +7024,7 @@
       <c r="AC2" s="8"/>
       <c r="AD2" s="10"/>
     </row>
-    <row r="3" spans="1:30" ht="15.75" thickBot="1">
+    <row r="3" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
@@ -6595,7 +7082,7 @@
       <c r="AC3" s="8"/>
       <c r="AD3" s="10"/>
     </row>
-    <row r="4" spans="1:30" ht="15.75" thickBot="1">
+    <row r="4" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
@@ -6653,7 +7140,7 @@
       <c r="AC4" s="8"/>
       <c r="AD4" s="10"/>
     </row>
-    <row r="5" spans="1:30" ht="15.75" thickBot="1">
+    <row r="5" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
@@ -6769,7 +7256,7 @@
       <c r="AC6" s="8"/>
       <c r="AD6" s="10"/>
     </row>
-    <row r="7" spans="1:30" ht="15.75" thickBot="1">
+    <row r="7" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A7" s="7" t="s">
         <v>47</v>
       </c>
@@ -6827,7 +7314,7 @@
       <c r="AC7" s="8"/>
       <c r="AD7" s="10"/>
     </row>
-    <row r="8" spans="1:30" ht="15.75" thickBot="1">
+    <row r="8" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A8" s="7" t="s">
         <v>47</v>
       </c>
@@ -6885,7 +7372,7 @@
       <c r="AC8" s="8"/>
       <c r="AD8" s="10"/>
     </row>
-    <row r="9" spans="1:30" ht="15.75" thickBot="1">
+    <row r="9" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A9" s="7" t="s">
         <v>47</v>
       </c>
@@ -6943,7 +7430,7 @@
       <c r="AC9" s="8"/>
       <c r="AD9" s="10"/>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1">
+    <row r="10" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A10" s="7" t="s">
         <v>50</v>
       </c>
@@ -7001,7 +7488,7 @@
       <c r="AC10" s="8"/>
       <c r="AD10" s="10"/>
     </row>
-    <row r="11" spans="1:30" ht="15.75" thickBot="1">
+    <row r="11" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A11" s="7" t="s">
         <v>50</v>
       </c>
@@ -7036,7 +7523,7 @@
       <c r="L11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="8" t="s">
         <v>23</v>
       </c>
       <c r="N11" s="8" t="s">
@@ -7059,7 +7546,7 @@
       <c r="AC11" s="8"/>
       <c r="AD11" s="10"/>
     </row>
-    <row r="12" spans="1:30" ht="15.75" thickBot="1">
+    <row r="12" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A12" s="7" t="s">
         <v>50</v>
       </c>
@@ -7175,7 +7662,7 @@
       <c r="AC13" s="8"/>
       <c r="AD13" s="10"/>
     </row>
-    <row r="14" spans="1:30" ht="15.75" thickBot="1">
+    <row r="14" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A14" s="7" t="s">
         <v>41</v>
       </c>
@@ -7233,7 +7720,7 @@
       <c r="AC14" s="8"/>
       <c r="AD14" s="10"/>
     </row>
-    <row r="15" spans="1:30" ht="15.75" thickBot="1">
+    <row r="15" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A15" s="7" t="s">
         <v>41</v>
       </c>
@@ -7291,7 +7778,7 @@
       <c r="AC15" s="8"/>
       <c r="AD15" s="10"/>
     </row>
-    <row r="16" spans="1:30" ht="15.75" thickBot="1">
+    <row r="16" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A16" s="7" t="s">
         <v>41</v>
       </c>
@@ -7349,7 +7836,7 @@
       <c r="AC16" s="8"/>
       <c r="AD16" s="10"/>
     </row>
-    <row r="17" spans="1:30" ht="15.75" thickBot="1">
+    <row r="17" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A17" s="7" t="s">
         <v>46</v>
       </c>
@@ -7407,7 +7894,7 @@
       <c r="AC17" s="8"/>
       <c r="AD17" s="10"/>
     </row>
-    <row r="18" spans="1:30" ht="15.75" thickBot="1">
+    <row r="18" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -7465,7 +7952,7 @@
       <c r="AC18" s="8"/>
       <c r="AD18" s="10"/>
     </row>
-    <row r="19" spans="1:30" ht="15.75" thickBot="1">
+    <row r="19" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
@@ -7519,7 +8006,7 @@
       <c r="AC19" s="8"/>
       <c r="AD19" s="10"/>
     </row>
-    <row r="20" spans="1:30" ht="15.75" thickBot="1">
+    <row r="20" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A20" s="7" t="s">
         <v>52</v>
       </c>
@@ -7575,48 +8062,46 @@
       <c r="AC20" s="8"/>
       <c r="AD20" s="10"/>
     </row>
-    <row r="21" spans="1:30" ht="15.75" thickBot="1">
+    <row r="21" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A21" s="7" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C21" s="9">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="F21" s="9">
+        <v>3000</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8">
+        <v>80</v>
+      </c>
+      <c r="I21" s="8">
+        <v>10</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>37</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K21" s="8"/>
       <c r="L21" s="8" t="s">
         <v>28</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
@@ -7635,46 +8120,48 @@
       <c r="AC21" s="8"/>
       <c r="AD21" s="10"/>
     </row>
-    <row r="22" spans="1:30" ht="15.75" thickBot="1">
+    <row r="22" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A22" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="9">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="9">
-        <v>2750</v>
-      </c>
-      <c r="G22" s="8">
-        <v>42</v>
-      </c>
-      <c r="H22" s="8">
-        <v>70</v>
+        <v>16</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="L22" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
@@ -7693,15 +8180,15 @@
       <c r="AC22" s="8"/>
       <c r="AD22" s="10"/>
     </row>
-    <row r="23" spans="1:30" ht="15.75" thickBot="1">
+    <row r="23" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A23" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" s="9">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>15</v>
@@ -7710,10 +8197,10 @@
         <v>29</v>
       </c>
       <c r="F23" s="9">
-        <v>2650</v>
+        <v>2750</v>
       </c>
       <c r="G23" s="8">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="H23" s="8">
         <v>70</v>
@@ -7726,7 +8213,7 @@
       </c>
       <c r="K23" s="8"/>
       <c r="L23" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M23" s="8" t="s">
         <v>19</v>
@@ -7751,27 +8238,27 @@
       <c r="AC23" s="8"/>
       <c r="AD23" s="10"/>
     </row>
-    <row r="24" spans="1:30" ht="15.75" thickBot="1">
+    <row r="24" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A24" s="7" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" s="9">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F24" s="9">
-        <v>2600</v>
+        <v>2650</v>
       </c>
       <c r="G24" s="8">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H24" s="8">
         <v>70</v>
@@ -7809,15 +8296,15 @@
       <c r="AC24" s="8"/>
       <c r="AD24" s="10"/>
     </row>
-    <row r="25" spans="1:30" ht="15.75" thickBot="1">
+    <row r="25" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A25" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>32</v>
@@ -7826,19 +8313,19 @@
         <v>29</v>
       </c>
       <c r="F25" s="9">
-        <v>2050</v>
+        <v>2600</v>
       </c>
       <c r="G25" s="8">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H25" s="8">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>30</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="K25" s="8"/>
       <c r="L25" s="8" t="s">
@@ -7848,7 +8335,7 @@
         <v>19</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
@@ -7867,36 +8354,36 @@
       <c r="AC25" s="8"/>
       <c r="AD25" s="10"/>
     </row>
-    <row r="26" spans="1:30" ht="15.75" thickBot="1">
+    <row r="26" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A26" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="C26" s="9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F26" s="9">
-        <v>3000</v>
+        <v>2050</v>
       </c>
       <c r="G26" s="8">
+        <v>11</v>
+      </c>
+      <c r="H26" s="8">
         <v>40</v>
-      </c>
-      <c r="H26" s="8">
-        <v>76</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>30</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="K26" s="8"/>
       <c r="L26" s="8" t="s">
@@ -7925,15 +8412,15 @@
       <c r="AC26" s="8"/>
       <c r="AD26" s="10"/>
     </row>
-    <row r="27" spans="1:30" ht="15.75" thickBot="1">
+    <row r="27" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="C27" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>15</v>
@@ -7942,23 +8429,23 @@
         <v>29</v>
       </c>
       <c r="F27" s="9">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="G27" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H27" s="8">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>30</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K27" s="8"/>
       <c r="L27" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>19</v>
@@ -7983,12 +8470,12 @@
       <c r="AC27" s="8"/>
       <c r="AD27" s="10"/>
     </row>
-    <row r="28" spans="1:30" ht="15.75" thickBot="1">
+    <row r="28" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A28" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C28" s="9">
         <v>24</v>
@@ -8000,13 +8487,13 @@
         <v>29</v>
       </c>
       <c r="F28" s="9">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="G28" s="8">
         <v>30</v>
       </c>
       <c r="H28" s="8">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>30</v>
@@ -8041,12 +8528,12 @@
       <c r="AC28" s="8"/>
       <c r="AD28" s="10"/>
     </row>
-    <row r="29" spans="1:30" ht="15.75" thickBot="1">
+    <row r="29" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A29" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" s="9">
         <v>24</v>
@@ -8064,7 +8551,7 @@
         <v>30</v>
       </c>
       <c r="H29" s="8">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I29" s="8" t="s">
         <v>30</v>
@@ -8074,7 +8561,7 @@
       </c>
       <c r="K29" s="8"/>
       <c r="L29" s="8" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M29" s="8" t="s">
         <v>19</v>
@@ -8099,33 +8586,33 @@
       <c r="AC29" s="8"/>
       <c r="AD29" s="10"/>
     </row>
-    <row r="30" spans="1:30" ht="15.75" thickBot="1">
+    <row r="30" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A30" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C30" s="9">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F30" s="9">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="G30" s="8">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H30" s="8">
-        <v>70</v>
-      </c>
-      <c r="I30" s="8">
-        <v>8</v>
+        <v>62</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>16</v>
@@ -8137,7 +8624,9 @@
       <c r="M30" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="N30" s="8"/>
+      <c r="N30" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
@@ -8155,15 +8644,15 @@
       <c r="AC30" s="8"/>
       <c r="AD30" s="10"/>
     </row>
-    <row r="31" spans="1:30" ht="15.75" thickBot="1">
+    <row r="31" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A31" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C31" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>15</v>
@@ -8175,27 +8664,25 @@
         <v>2800</v>
       </c>
       <c r="G31" s="8">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H31" s="8">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I31" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>16</v>
       </c>
       <c r="K31" s="8"/>
       <c r="L31" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="N31" s="8" t="s">
-        <v>56</v>
-      </c>
+      <c r="N31" s="8"/>
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
@@ -8213,15 +8700,15 @@
       <c r="AC31" s="8"/>
       <c r="AD31" s="10"/>
     </row>
-    <row r="32" spans="1:30" ht="15.75" thickBot="1">
+    <row r="32" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A32" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C32" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>15</v>
@@ -8230,29 +8717,29 @@
         <v>16</v>
       </c>
       <c r="F32" s="9">
-        <v>2650</v>
+        <v>2800</v>
       </c>
       <c r="G32" s="8">
         <v>40</v>
       </c>
       <c r="H32" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I32" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K32" s="8"/>
       <c r="L32" s="8" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
@@ -8271,15 +8758,15 @@
       <c r="AC32" s="8"/>
       <c r="AD32" s="10"/>
     </row>
-    <row r="33" spans="1:30" ht="15.75" thickBot="1">
+    <row r="33" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A33" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="C33" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>15</v>
@@ -8294,13 +8781,13 @@
         <v>40</v>
       </c>
       <c r="H33" s="8">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I33" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K33" s="8"/>
       <c r="L33" s="8" t="s">
@@ -8329,15 +8816,15 @@
       <c r="AC33" s="8"/>
       <c r="AD33" s="10"/>
     </row>
-    <row r="34" spans="1:30" ht="15.75" thickBot="1">
+    <row r="34" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A34" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="C34" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>15</v>
@@ -8346,26 +8833,26 @@
         <v>16</v>
       </c>
       <c r="F34" s="9">
-        <v>2600</v>
+        <v>2650</v>
       </c>
       <c r="G34" s="8">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="H34" s="8">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="I34" s="8">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="K34" s="8"/>
       <c r="L34" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N34" s="8" t="s">
         <v>55</v>
@@ -8387,12 +8874,12 @@
       <c r="AC34" s="8"/>
       <c r="AD34" s="10"/>
     </row>
-    <row r="35" spans="1:30" ht="15.75" thickBot="1">
+    <row r="35" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A35" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C35" s="9">
         <v>25</v>
@@ -8404,19 +8891,19 @@
         <v>16</v>
       </c>
       <c r="F35" s="9">
-        <v>2550</v>
+        <v>2600</v>
       </c>
       <c r="G35" s="8">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H35" s="8">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="I35" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="K35" s="8"/>
       <c r="L35" s="8" t="s">
@@ -8445,15 +8932,15 @@
       <c r="AC35" s="8"/>
       <c r="AD35" s="10"/>
     </row>
-    <row r="36" spans="1:30" ht="15.75" thickBot="1">
+    <row r="36" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A36" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="C36" s="9">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>15</v>
@@ -8462,23 +8949,23 @@
         <v>16</v>
       </c>
       <c r="F36" s="9">
-        <v>2450</v>
+        <v>2550</v>
       </c>
       <c r="G36" s="8">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H36" s="8">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="I36" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>36</v>
       </c>
       <c r="K36" s="8"/>
       <c r="L36" s="8" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>19</v>
@@ -8503,15 +8990,15 @@
       <c r="AC36" s="8"/>
       <c r="AD36" s="10"/>
     </row>
-    <row r="37" spans="1:30" ht="15.75" thickBot="1">
+    <row r="37" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A37" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="C37" s="9">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>15</v>
@@ -8519,19 +9006,31 @@
       <c r="E37" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
+      <c r="F37" s="9">
+        <v>2450</v>
+      </c>
+      <c r="G37" s="8">
+        <v>37</v>
+      </c>
+      <c r="H37" s="8">
+        <v>80</v>
+      </c>
+      <c r="I37" s="8">
+        <v>5</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="K37" s="8"/>
       <c r="L37" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M37" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N37" s="8"/>
+      <c r="M37" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
@@ -8549,15 +9048,15 @@
       <c r="AC37" s="8"/>
       <c r="AD37" s="10"/>
     </row>
-    <row r="38" spans="1:30" ht="15.75" thickBot="1">
+    <row r="38" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A38" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>15</v>
@@ -8565,31 +9064,19 @@
       <c r="E38" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="9">
-        <v>2050</v>
-      </c>
-      <c r="G38" s="8">
-        <v>20</v>
-      </c>
-      <c r="H38" s="8">
-        <v>80</v>
-      </c>
-      <c r="I38" s="8">
-        <v>0</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M38" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="N38" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="M38" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N38" s="8"/>
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
@@ -8607,15 +9094,15 @@
       <c r="AC38" s="8"/>
       <c r="AD38" s="10"/>
     </row>
-    <row r="39" spans="1:30" ht="15.75" thickBot="1">
+    <row r="39" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A39" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>15</v>
@@ -8624,26 +9111,26 @@
         <v>16</v>
       </c>
       <c r="F39" s="9">
-        <v>2200</v>
+        <v>2050</v>
       </c>
       <c r="G39" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H39" s="8">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="I39" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>36</v>
       </c>
       <c r="K39" s="8"/>
       <c r="L39" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="N39" s="8" t="s">
         <v>55</v>
@@ -8665,12 +9152,12 @@
       <c r="AC39" s="8"/>
       <c r="AD39" s="10"/>
     </row>
-    <row r="40" spans="1:30" ht="15.75" thickBot="1">
+    <row r="40" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A40" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40" s="9">
         <v>18</v>
@@ -8688,7 +9175,7 @@
         <v>19</v>
       </c>
       <c r="H40" s="8">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="I40" s="8">
         <v>5</v>
@@ -8698,7 +9185,7 @@
       </c>
       <c r="K40" s="8"/>
       <c r="L40" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M40" s="8" t="s">
         <v>19</v>
@@ -8725,13 +9212,13 @@
     </row>
     <row r="41" spans="1:30" ht="15.75" thickBot="1">
       <c r="A41" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C41" s="9">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>15</v>
@@ -8740,19 +9227,19 @@
         <v>16</v>
       </c>
       <c r="F41" s="9">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="G41" s="8">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H41" s="8">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="I41" s="8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="K41" s="8"/>
       <c r="L41" s="8" t="s">
@@ -8762,7 +9249,7 @@
         <v>19</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="O41" s="8"/>
       <c r="P41" s="8"/>
@@ -8783,34 +9270,34 @@
     </row>
     <row r="42" spans="1:30" ht="15.75" thickBot="1">
       <c r="A42" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C42" s="9">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F42" s="9">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="G42" s="8">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H42" s="8">
-        <v>85</v>
-      </c>
-      <c r="I42" s="8">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="K42" s="8"/>
       <c r="L42" s="8" t="s">
@@ -8820,7 +9307,7 @@
         <v>19</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="O42" s="8"/>
       <c r="P42" s="8"/>
@@ -8844,7 +9331,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C43" s="9">
         <v>18</v>
@@ -8856,23 +9343,23 @@
         <v>16</v>
       </c>
       <c r="F43" s="9">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="G43" s="8">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H43" s="8">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="I43" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>36</v>
       </c>
       <c r="K43" s="8"/>
       <c r="L43" s="8" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M43" s="8" t="s">
         <v>19</v>
@@ -8902,10 +9389,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C44" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>15</v>
@@ -8914,19 +9401,19 @@
         <v>16</v>
       </c>
       <c r="F44" s="9">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="G44" s="8">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="H44" s="8">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="I44" s="8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K44" s="8"/>
       <c r="L44" s="8" t="s">
@@ -8960,10 +9447,10 @@
         <v>42</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C45" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>15</v>
@@ -8972,23 +9459,23 @@
         <v>16</v>
       </c>
       <c r="F45" s="9">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="G45" s="8">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H45" s="8">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I45" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J45" s="8" t="s">
         <v>36</v>
       </c>
       <c r="K45" s="8"/>
       <c r="L45" s="8" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M45" s="8" t="s">
         <v>19</v>
@@ -9013,12 +9500,12 @@
       <c r="AC45" s="8"/>
       <c r="AD45" s="10"/>
     </row>
-    <row r="46" spans="1:30" ht="15.75" thickBot="1">
+    <row r="46" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A46" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="C46" s="9">
         <v>18</v>
@@ -9033,20 +9520,20 @@
         <v>2000</v>
       </c>
       <c r="G46" s="8">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H46" s="8">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="I46" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J46" s="8" t="s">
         <v>36</v>
       </c>
       <c r="K46" s="8"/>
       <c r="L46" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M46" s="8" t="s">
         <v>19</v>
@@ -9076,10 +9563,10 @@
         <v>42</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C47" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>15</v>
@@ -9091,13 +9578,13 @@
         <v>2000</v>
       </c>
       <c r="G47" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H47" s="8">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="I47" s="8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>22</v>
@@ -9129,11 +9616,190 @@
       <c r="AC47" s="8"/>
       <c r="AD47" s="10"/>
     </row>
+    <row r="48" spans="1:30" ht="15.75" hidden="1" thickBot="1">
+      <c r="A48" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="9">
+        <v>18</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="9">
+        <v>2000</v>
+      </c>
+      <c r="G48" s="8">
+        <v>18</v>
+      </c>
+      <c r="H48" s="8">
+        <v>75</v>
+      </c>
+      <c r="I48" s="8">
+        <v>4</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="8"/>
+      <c r="AD48" s="10"/>
+    </row>
+    <row r="49" spans="1:30" ht="15.75" thickBot="1">
+      <c r="A49" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="9">
+        <v>18</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="9">
+        <v>2000</v>
+      </c>
+      <c r="G49" s="8">
+        <v>13</v>
+      </c>
+      <c r="H49" s="8">
+        <v>86</v>
+      </c>
+      <c r="I49" s="8">
+        <v>4</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="8"/>
+      <c r="AD49" s="10"/>
+    </row>
+    <row r="50" spans="1:30" ht="15.75" thickBot="1">
+      <c r="A50" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="9">
+        <v>17</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="9">
+        <v>2000</v>
+      </c>
+      <c r="G50" s="8">
+        <v>25</v>
+      </c>
+      <c r="H50" s="8">
+        <v>80</v>
+      </c>
+      <c r="I50" s="8">
+        <v>8</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N50" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="8"/>
+      <c r="AD50" s="10"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M47">
+  <autoFilter ref="A1:M50">
     <filterColumn colId="3">
       <filters>
         <filter val="M"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="11">
+      <filters>
+        <filter val="2ª Cia Fuz L Mth"/>
       </filters>
     </filterColumn>
     <sortState ref="A2:M1000">

--- a/dash/PLANILHA TAF.xlsx
+++ b/dash/PLANILHA TAF.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="1º TAF" sheetId="1" r:id="rId1"/>
@@ -900,10 +900,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AD50"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A41" sqref="A41:N42"/>
     </sheetView>
@@ -987,7 +986,7 @@
       <c r="AC1" s="5"/>
       <c r="AD1" s="6"/>
     </row>
-    <row r="2" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="2" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -1045,7 +1044,7 @@
       <c r="AC2" s="8"/>
       <c r="AD2" s="10"/>
     </row>
-    <row r="3" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="3" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
@@ -1103,7 +1102,7 @@
       <c r="AC3" s="8"/>
       <c r="AD3" s="10"/>
     </row>
-    <row r="4" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="4" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
@@ -1161,7 +1160,7 @@
       <c r="AC4" s="8"/>
       <c r="AD4" s="10"/>
     </row>
-    <row r="5" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="5" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
@@ -1277,7 +1276,7 @@
       <c r="AC6" s="8"/>
       <c r="AD6" s="10"/>
     </row>
-    <row r="7" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="7" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A7" s="7" t="s">
         <v>47</v>
       </c>
@@ -1335,7 +1334,7 @@
       <c r="AC7" s="8"/>
       <c r="AD7" s="10"/>
     </row>
-    <row r="8" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="8" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A8" s="7" t="s">
         <v>47</v>
       </c>
@@ -1393,7 +1392,7 @@
       <c r="AC8" s="8"/>
       <c r="AD8" s="10"/>
     </row>
-    <row r="9" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="9" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A9" s="7" t="s">
         <v>47</v>
       </c>
@@ -1451,7 +1450,7 @@
       <c r="AC9" s="8"/>
       <c r="AD9" s="10"/>
     </row>
-    <row r="10" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="10" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A10" s="7" t="s">
         <v>50</v>
       </c>
@@ -1509,7 +1508,7 @@
       <c r="AC10" s="8"/>
       <c r="AD10" s="10"/>
     </row>
-    <row r="11" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="11" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A11" s="7" t="s">
         <v>50</v>
       </c>
@@ -1683,7 +1682,7 @@
       <c r="AC13" s="8"/>
       <c r="AD13" s="10"/>
     </row>
-    <row r="14" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="14" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A14" s="7" t="s">
         <v>41</v>
       </c>
@@ -1741,7 +1740,7 @@
       <c r="AC14" s="8"/>
       <c r="AD14" s="10"/>
     </row>
-    <row r="15" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="15" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A15" s="7" t="s">
         <v>41</v>
       </c>
@@ -1799,7 +1798,7 @@
       <c r="AC15" s="8"/>
       <c r="AD15" s="10"/>
     </row>
-    <row r="16" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="16" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A16" s="7" t="s">
         <v>41</v>
       </c>
@@ -1857,7 +1856,7 @@
       <c r="AC16" s="8"/>
       <c r="AD16" s="10"/>
     </row>
-    <row r="17" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="17" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A17" s="7" t="s">
         <v>46</v>
       </c>
@@ -1915,7 +1914,7 @@
       <c r="AC17" s="8"/>
       <c r="AD17" s="10"/>
     </row>
-    <row r="18" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="18" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -1969,7 +1968,7 @@
       <c r="AC18" s="8"/>
       <c r="AD18" s="10"/>
     </row>
-    <row r="19" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="19" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
@@ -2027,7 +2026,7 @@
       <c r="AC19" s="8"/>
       <c r="AD19" s="10"/>
     </row>
-    <row r="20" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="20" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A20" s="7" t="s">
         <v>52</v>
       </c>
@@ -2083,7 +2082,7 @@
       <c r="AC20" s="8"/>
       <c r="AD20" s="10"/>
     </row>
-    <row r="21" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="21" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A21" s="7" t="s">
         <v>97</v>
       </c>
@@ -2141,7 +2140,7 @@
       <c r="AC21" s="8"/>
       <c r="AD21" s="10"/>
     </row>
-    <row r="22" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="22" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A22" s="7" t="s">
         <v>52</v>
       </c>
@@ -2201,7 +2200,7 @@
       <c r="AC22" s="8"/>
       <c r="AD22" s="10"/>
     </row>
-    <row r="23" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="23" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A23" s="7" t="s">
         <v>52</v>
       </c>
@@ -2259,7 +2258,7 @@
       <c r="AC23" s="8"/>
       <c r="AD23" s="10"/>
     </row>
-    <row r="24" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="24" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A24" s="7" t="s">
         <v>54</v>
       </c>
@@ -2317,7 +2316,7 @@
       <c r="AC24" s="8"/>
       <c r="AD24" s="10"/>
     </row>
-    <row r="25" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="25" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A25" s="7" t="s">
         <v>38</v>
       </c>
@@ -2375,7 +2374,7 @@
       <c r="AC25" s="8"/>
       <c r="AD25" s="10"/>
     </row>
-    <row r="26" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="26" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A26" s="7" t="s">
         <v>38</v>
       </c>
@@ -2433,7 +2432,7 @@
       <c r="AC26" s="8"/>
       <c r="AD26" s="10"/>
     </row>
-    <row r="27" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="27" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A27" s="7" t="s">
         <v>38</v>
       </c>
@@ -2491,7 +2490,7 @@
       <c r="AC27" s="8"/>
       <c r="AD27" s="10"/>
     </row>
-    <row r="28" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="28" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A28" s="7" t="s">
         <v>39</v>
       </c>
@@ -2549,7 +2548,7 @@
       <c r="AC28" s="8"/>
       <c r="AD28" s="10"/>
     </row>
-    <row r="29" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="29" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A29" s="7" t="s">
         <v>39</v>
       </c>
@@ -2607,7 +2606,7 @@
       <c r="AC29" s="8"/>
       <c r="AD29" s="10"/>
     </row>
-    <row r="30" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="30" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A30" s="7" t="s">
         <v>39</v>
       </c>
@@ -2665,7 +2664,7 @@
       <c r="AC30" s="8"/>
       <c r="AD30" s="10"/>
     </row>
-    <row r="31" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="31" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A31" s="7" t="s">
         <v>39</v>
       </c>
@@ -2721,7 +2720,7 @@
       <c r="AC31" s="8"/>
       <c r="AD31" s="10"/>
     </row>
-    <row r="32" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="32" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A32" s="7" t="s">
         <v>39</v>
       </c>
@@ -2779,7 +2778,7 @@
       <c r="AC32" s="8"/>
       <c r="AD32" s="10"/>
     </row>
-    <row r="33" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="33" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A33" s="7" t="s">
         <v>40</v>
       </c>
@@ -2837,7 +2836,7 @@
       <c r="AC33" s="8"/>
       <c r="AD33" s="10"/>
     </row>
-    <row r="34" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="34" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A34" s="7" t="s">
         <v>40</v>
       </c>
@@ -2895,7 +2894,7 @@
       <c r="AC34" s="8"/>
       <c r="AD34" s="10"/>
     </row>
-    <row r="35" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="35" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A35" s="7" t="s">
         <v>40</v>
       </c>
@@ -2953,7 +2952,7 @@
       <c r="AC35" s="8"/>
       <c r="AD35" s="10"/>
     </row>
-    <row r="36" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="36" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A36" s="7" t="s">
         <v>40</v>
       </c>
@@ -3011,7 +3010,7 @@
       <c r="AC36" s="8"/>
       <c r="AD36" s="10"/>
     </row>
-    <row r="37" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="37" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A37" s="7" t="s">
         <v>40</v>
       </c>
@@ -3069,7 +3068,7 @@
       <c r="AC37" s="8"/>
       <c r="AD37" s="10"/>
     </row>
-    <row r="38" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="38" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A38" s="7" t="s">
         <v>40</v>
       </c>
@@ -3125,7 +3124,7 @@
       <c r="AC38" s="8"/>
       <c r="AD38" s="10"/>
     </row>
-    <row r="39" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="39" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A39" s="7" t="s">
         <v>40</v>
       </c>
@@ -3173,7 +3172,7 @@
       <c r="AC39" s="8"/>
       <c r="AD39" s="10"/>
     </row>
-    <row r="40" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="40" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A40" s="7" t="s">
         <v>42</v>
       </c>
@@ -3521,7 +3520,7 @@
       <c r="AC45" s="8"/>
       <c r="AD45" s="10"/>
     </row>
-    <row r="46" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="46" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A46" s="7" t="s">
         <v>42</v>
       </c>
@@ -3633,7 +3632,7 @@
       <c r="AC47" s="8"/>
       <c r="AD47" s="10"/>
     </row>
-    <row r="48" spans="1:30" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="48" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A48" s="7" t="s">
         <v>42</v>
       </c>
@@ -3809,11 +3808,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:M50">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="2ª Cia Fuz L Mth"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A2:M1000">
       <sortCondition ref="A2:A1000" customList="CEL,TEN CEL,MAJ,CAP,1º TEN,2º TEN,ASP,S TEN,1º SGT,2º SGT,2º SGT QE,3º SGT,CB,SD,SD EV"/>
     </sortState>
@@ -3832,9 +3826,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="14.25"/>
